--- a/trunk/modelisator/Gestion de projet/2015_05_21 [Modelisator] Step 1/2015_05_21 [Modelisator] Todo list.xlsx
+++ b/trunk/modelisator/Gestion de projet/2015_05_21 [Modelisator] Step 1/2015_05_21 [Modelisator] Todo list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4272" yWindow="-180" windowWidth="12384" windowHeight="10044" activeTab="6"/>
+    <workbookView xWindow="4275" yWindow="-180" windowWidth="12390" windowHeight="10050" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Graph4" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
   <si>
     <t>TO-DO list</t>
   </si>
@@ -42,9 +42,6 @@
     <t>NOM</t>
   </si>
   <si>
-    <t>fichier def</t>
-  </si>
-  <si>
     <t>ici</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>Gestion des risques</t>
   </si>
   <si>
-    <t>Clôture</t>
-  </si>
-  <si>
     <t>Finalisation du livrable</t>
   </si>
   <si>
@@ -102,29 +96,6 @@
     <t>doc</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Exécution</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Planning </t>
   </si>
   <si>
@@ -134,24 +105,12 @@
     <t>Omar</t>
   </si>
   <si>
-    <t>Baptiste</t>
-  </si>
-  <si>
-    <t>les 2</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Montage</t>
-  </si>
-  <si>
     <t>tableur budget</t>
   </si>
   <si>
@@ -197,12 +156,6 @@
     <t>Choisir un nom</t>
   </si>
   <si>
-    <t>Fiche de définition de projet</t>
-  </si>
-  <si>
-    <t>Définition</t>
-  </si>
-  <si>
     <t>Mission</t>
   </si>
   <si>
@@ -230,18 +183,9 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Rescencer les contraintes</t>
-  </si>
-  <si>
-    <t>Liste des contrainte</t>
-  </si>
-  <si>
     <t>PBS</t>
   </si>
   <si>
-    <t>Répartission en taches</t>
-  </si>
-  <si>
     <t>Répartire l'ensemble des fonctionnalités en taches</t>
   </si>
   <si>
@@ -263,18 +207,12 @@
     <t>le choix technologique, la description des traitements, le nouveau planning</t>
   </si>
   <si>
-    <t>Liste des éxigences</t>
-  </si>
-  <si>
     <t>Analyse des requis</t>
   </si>
   <si>
     <t>Test d'intégration et test unitaire</t>
   </si>
   <si>
-    <t>1er partie a rendre</t>
-  </si>
-  <si>
     <t>CDC + tous les elements réaliser</t>
   </si>
   <si>
@@ -302,7 +240,82 @@
     <t>revision 3  cdc</t>
   </si>
   <si>
-    <t>TODO list on 05/02/2015</t>
+    <t>Choisir un Logo</t>
+  </si>
+  <si>
+    <t>Image du Logo</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Quentin</t>
+  </si>
+  <si>
+    <t>Cédric</t>
+  </si>
+  <si>
+    <t>Taha</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Les 4</t>
+  </si>
+  <si>
+    <t>Définition des objectifs</t>
+  </si>
+  <si>
+    <t>Analyse des besoins et faisabilité</t>
+  </si>
+  <si>
+    <t>Conception générale</t>
+  </si>
+  <si>
+    <t>Répartition en taches</t>
+  </si>
+  <si>
+    <t>1ère partie a rendre</t>
+  </si>
+  <si>
+    <t>Conception détaillée</t>
+  </si>
+  <si>
+    <t>Mise en production</t>
+  </si>
+  <si>
+    <t>Assistance et maintenance</t>
+  </si>
+  <si>
+    <t>Accompagnement</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Recette</t>
+  </si>
+  <si>
+    <t>Développement</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>TODO list on 21/05/2015</t>
+  </si>
+  <si>
+    <t>Liste des exigences</t>
+  </si>
+  <si>
+    <t>Recenser les contraintes</t>
+  </si>
+  <si>
+    <t>Liste des contraintes</t>
   </si>
 </sst>
 </file>
@@ -312,7 +325,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,26 +372,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -475,21 +474,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -603,15 +587,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -750,12 +725,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -793,151 +792,100 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -946,16 +894,85 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -987,6 +1004,10 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1003,7 +1024,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Clôture Réafectation des ressources sur d'autre projet Documentation pour la formation à l'utilisation du livrable retour en entreprise légende les 2 39</c:v>
+                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1013,7 +1034,7 @@
             <c:strRef>
               <c:f>Feuil1!$I$2:$I$38</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1030,52 +1051,55 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -1099,7 +1123,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2,037037037</c:v>
+                  <c:v>0,428571429</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -1112,12 +1136,6 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>O</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>B</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1128,9 +1146,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1144,11 +1159,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139169280"/>
-        <c:axId val="91738624"/>
+        <c:axId val="110897152"/>
+        <c:axId val="86299136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139169280"/>
+        <c:axId val="110897152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,7 +1172,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91738624"/>
+        <c:crossAx val="86299136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1165,7 +1180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91738624"/>
+        <c:axId val="86299136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1176,13 +1191,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139169280"/>
+        <c:crossAx val="110897152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1207,6 +1223,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1225,7 +1242,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Clôture Réafectation des ressources sur d'autre projet Documentation pour la formation à l'utilisation du livrable retour en entreprise légende les 2 39</c:v>
+                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1235,7 +1252,7 @@
             <c:strRef>
               <c:f>Feuil1!$I$2:$I$38</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1252,52 +1269,55 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -1321,7 +1341,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2,037037037</c:v>
+                  <c:v>0,428571429</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -1334,12 +1354,6 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>O</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>B</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1350,9 +1364,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1366,11 +1377,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139876352"/>
-        <c:axId val="91740352"/>
+        <c:axId val="75482624"/>
+        <c:axId val="86300864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139876352"/>
+        <c:axId val="75482624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,7 +1390,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91740352"/>
+        <c:crossAx val="86300864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1387,7 +1398,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91740352"/>
+        <c:axId val="86300864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,13 +1409,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139876352"/>
+        <c:crossAx val="75482624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1428,6 +1440,10 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1444,7 +1460,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Clôture Réafectation des ressources sur d'autre projet Documentation pour la formation à l'utilisation du livrable retour en entreprise légende les 2 39</c:v>
+                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1454,7 +1470,7 @@
             <c:strRef>
               <c:f>Feuil1!$I$2:$I$38</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1471,52 +1487,55 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -1540,7 +1559,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2,037037037</c:v>
+                  <c:v>0,428571429</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -1553,12 +1572,6 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>O</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>B</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1569,9 +1582,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1585,11 +1595,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139877888"/>
-        <c:axId val="140181504"/>
+        <c:axId val="75483136"/>
+        <c:axId val="127598592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139877888"/>
+        <c:axId val="75483136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,7 +1608,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140181504"/>
+        <c:crossAx val="127598592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1606,7 +1616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140181504"/>
+        <c:axId val="127598592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1617,13 +1627,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139877888"/>
+        <c:crossAx val="75483136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1648,6 +1659,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1666,7 +1678,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Clôture Réafectation des ressources sur d'autre projet Documentation pour la formation à l'utilisation du livrable retour en entreprise légende les 2 39</c:v>
+                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1676,7 +1688,7 @@
             <c:strRef>
               <c:f>Feuil1!$I$2:$I$38</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1693,52 +1705,55 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -1762,7 +1777,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2,037037037</c:v>
+                  <c:v>0,428571429</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -1775,12 +1790,6 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>O</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>B</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1791,9 +1800,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1807,11 +1813,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="140269056"/>
-        <c:axId val="140183232"/>
+        <c:axId val="127979520"/>
+        <c:axId val="127600320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140269056"/>
+        <c:axId val="127979520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,7 +1826,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140183232"/>
+        <c:crossAx val="127600320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1828,7 +1834,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140183232"/>
+        <c:axId val="127600320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1839,13 +1845,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140269056"/>
+        <c:crossAx val="127979520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1870,6 +1877,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1888,7 +1896,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Clôture Réafectation des ressources sur d'autre projet Documentation pour la formation à l'utilisation du livrable retour en entreprise légende les 2 39</c:v>
+                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1898,7 +1906,7 @@
             <c:strRef>
               <c:f>Feuil1!$I$2:$I$38</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1915,52 +1923,55 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -1984,7 +1995,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2,037037037</c:v>
+                  <c:v>0,428571429</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -1997,12 +2008,6 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>O</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>B</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2013,9 +2018,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2029,11 +2031,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139166208"/>
-        <c:axId val="140184960"/>
+        <c:axId val="127981056"/>
+        <c:axId val="127602048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139166208"/>
+        <c:axId val="127981056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2042,7 +2044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140184960"/>
+        <c:crossAx val="127602048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2050,7 +2052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140184960"/>
+        <c:axId val="127602048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,13 +2063,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139166208"/>
+        <c:crossAx val="127981056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2091,6 +2094,10 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2107,7 +2114,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Clôture Réafectation des ressources sur d'autre projet Documentation pour la formation à l'utilisation du livrable retour en entreprise légende les 2 39</c:v>
+                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2117,7 +2124,7 @@
             <c:strRef>
               <c:f>Feuil1!$I$2:$I$38</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -2134,52 +2141,55 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -2203,7 +2213,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2,037037037</c:v>
+                  <c:v>0,428571429</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -2216,12 +2226,6 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>O</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>B</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2232,9 +2236,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2248,11 +2249,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="140271104"/>
-        <c:axId val="140186688"/>
+        <c:axId val="127981568"/>
+        <c:axId val="127603776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140271104"/>
+        <c:axId val="127981568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2261,7 +2262,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140186688"/>
+        <c:crossAx val="127603776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2269,7 +2270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140186688"/>
+        <c:axId val="127603776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2280,13 +2281,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140271104"/>
+        <c:crossAx val="127981568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2366,7 +2368,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9290242" cy="6065212"/>
+    <xdr:ext cx="9303712" cy="6080606"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -2393,7 +2395,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9290242" cy="6065212"/>
+    <xdr:ext cx="9303712" cy="6080606"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -2420,7 +2422,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9290242" cy="6065212"/>
+    <xdr:ext cx="9303712" cy="6080606"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -2447,7 +2449,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9290242" cy="6065212"/>
+    <xdr:ext cx="9303712" cy="6080606"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -2474,7 +2476,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9290242" cy="6065212"/>
+    <xdr:ext cx="9303712" cy="6080606"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -2501,7 +2503,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9290242" cy="6065212"/>
+    <xdr:ext cx="9303712" cy="6080606"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -2813,25 +2815,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="6"/>
@@ -2846,76 +2848,76 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="B2" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>57</v>
+      <c r="D3" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>48</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="52" t="s">
-        <v>52</v>
+      <c r="B4" s="51" t="s">
+        <v>81</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G4" s="16">
-        <v>42025</v>
-      </c>
-      <c r="H4" s="61">
-        <v>1</v>
-      </c>
-      <c r="I4" s="17">
+        <v>42145</v>
+      </c>
+      <c r="H4" s="54">
+        <v>2</v>
+      </c>
+      <c r="I4" s="58">
         <v>3</v>
       </c>
       <c r="J4" s="3"/>
@@ -2923,24 +2925,24 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="53"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G5" s="12">
-        <v>42025</v>
-      </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="18">
+        <v>42145</v>
+      </c>
+      <c r="H5" s="55"/>
+      <c r="I5" s="17">
         <v>3</v>
       </c>
       <c r="J5" s="3"/>
@@ -2948,24 +2950,26 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="53"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="10" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="11" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="G6" s="12">
-        <v>42025</v>
-      </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="18">
+        <v>42145</v>
+      </c>
+      <c r="H6" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="17">
         <v>3</v>
       </c>
       <c r="J6" s="3"/>
@@ -2973,7 +2977,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="53"/>
       <c r="C7" s="10" t="s">
@@ -2981,16 +2985,18 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G7" s="12">
-        <v>42025</v>
-      </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="18">
+        <v>42145</v>
+      </c>
+      <c r="H7" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="17">
         <v>3</v>
       </c>
       <c r="J7" s="3"/>
@@ -2998,65 +3004,59 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="54"/>
+      <c r="B8" s="71" t="s">
+        <v>82</v>
+      </c>
       <c r="C8" s="10" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="11" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="12">
-        <v>42026</v>
-      </c>
-      <c r="H8" s="46">
+        <v>27</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="35">
         <v>0.5</v>
       </c>
-      <c r="I8" s="18">
-        <v>3</v>
+      <c r="I8" s="17">
+        <v>0</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="55" t="s">
-        <v>35</v>
-      </c>
+      <c r="B9" s="52"/>
       <c r="C9" s="10" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="12">
-        <v>42026</v>
-      </c>
-      <c r="H9" s="46">
+        <v>61</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="35">
         <v>0.5</v>
       </c>
-      <c r="I9" s="18">
-        <v>3</v>
+      <c r="I9" s="17">
+        <v>0</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="56"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="10" t="s">
         <v>2</v>
       </c>
@@ -3064,256 +3064,228 @@
         <v>3</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="12">
-        <v>42033</v>
-      </c>
-      <c r="H10" s="37">
+        <v>7</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="32">
         <v>2</v>
       </c>
-      <c r="I10" s="18">
-        <v>4</v>
+      <c r="I10" s="17">
+        <v>0</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="56"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="10" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="12">
-        <v>42026</v>
-      </c>
-      <c r="H11" s="37">
+        <v>58</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="32">
         <v>1</v>
       </c>
-      <c r="I11" s="18">
-        <v>3</v>
+      <c r="I11" s="17">
+        <v>0</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="56"/>
+      <c r="B12" s="52" t="s">
+        <v>83</v>
+      </c>
       <c r="C12" s="10" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="12">
-        <v>42033</v>
-      </c>
-      <c r="H12" s="37">
+        <v>59</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="32">
         <v>1</v>
       </c>
-      <c r="I12" s="18">
-        <v>3</v>
+      <c r="I12" s="17">
+        <v>0</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="56"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="10" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="12">
-        <v>42033</v>
-      </c>
-      <c r="H13" s="37">
+        <v>63</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="32">
         <v>0.5</v>
       </c>
-      <c r="I13" s="18">
-        <v>2</v>
+      <c r="I13" s="17">
+        <v>0</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="56"/>
+      <c r="B14" s="72" t="s">
+        <v>86</v>
+      </c>
       <c r="C14" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="12">
-        <v>42033</v>
-      </c>
-      <c r="H14" s="37">
+        <v>53</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="32">
         <v>0.5</v>
       </c>
-      <c r="I14" s="18">
-        <v>1</v>
+      <c r="I14" s="17">
+        <v>0</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="56"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="10" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="12">
-        <v>42033</v>
-      </c>
-      <c r="H15" s="37">
+        <v>8</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="32">
         <v>0.5</v>
       </c>
-      <c r="I15" s="18">
-        <v>3</v>
+      <c r="I15" s="17">
+        <v>0</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="48"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="8"/>
       <c r="E16" s="11"/>
       <c r="F16" s="9"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="18"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="17">
+        <v>0</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="31" t="s">
-        <v>27</v>
+      <c r="B17" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="12">
-        <v>42033</v>
-      </c>
-      <c r="H17" s="37">
+        <v>40</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="32">
         <v>0.5</v>
       </c>
-      <c r="I17" s="18">
-        <v>2</v>
+      <c r="I17" s="17">
+        <v>0</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="32"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="8"/>
       <c r="E18" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="12">
-        <v>42033</v>
-      </c>
-      <c r="H18" s="37">
+        <v>39</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="32">
         <v>1</v>
       </c>
-      <c r="I18" s="18">
-        <v>3</v>
+      <c r="I18" s="17">
+        <v>0</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="56"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="12">
-        <v>42033</v>
-      </c>
-      <c r="H19" s="37">
+        <v>9</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="32">
         <v>0.5</v>
       </c>
-      <c r="I19" s="18">
-        <v>3</v>
+      <c r="I19" s="17">
+        <v>0</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -3321,173 +3293,149 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="56"/>
+      <c r="B20" s="40" t="s">
+        <v>93</v>
+      </c>
       <c r="C20" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="12">
-        <v>42033</v>
-      </c>
-      <c r="H20" s="37">
+        <v>14</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="32">
         <v>1</v>
       </c>
-      <c r="I20" s="18">
-        <v>3</v>
+      <c r="I20" s="17">
+        <v>0</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="57"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="12">
-        <v>42033</v>
-      </c>
-      <c r="H21" s="37">
+        <v>71</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="32">
         <v>2</v>
       </c>
-      <c r="I21" s="18">
-        <v>3</v>
+      <c r="I21" s="17">
+        <v>0</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="55" t="s">
-        <v>26</v>
-      </c>
+      <c r="B22" s="39"/>
       <c r="C22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="E22" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="12">
-        <v>42033</v>
-      </c>
-      <c r="H22" s="37">
+        <v>29</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="32">
         <v>0.5</v>
       </c>
-      <c r="I22" s="18">
-        <v>3</v>
+      <c r="I22" s="17">
+        <v>0</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="56"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="12">
-        <v>42040</v>
-      </c>
-      <c r="H23" s="37">
+        <v>13</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="32">
         <v>1.5</v>
       </c>
-      <c r="I23" s="18">
-        <v>3</v>
+      <c r="I23" s="17">
+        <v>0</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="57"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="E24" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="12">
-        <v>42040</v>
-      </c>
-      <c r="H24" s="37">
         <v>15</v>
       </c>
-      <c r="I24" s="18">
-        <v>1</v>
+      <c r="F24" s="9"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="32">
+        <v>15</v>
+      </c>
+      <c r="I24" s="17">
+        <v>0</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="12">
-        <v>42044</v>
-      </c>
-      <c r="H25" s="37">
+      <c r="F25" s="9"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="32">
         <v>4</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="17">
         <v>0</v>
       </c>
       <c r="J25" s="3"/>
@@ -3495,22 +3443,18 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="66"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="10" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="12">
-        <v>42047</v>
-      </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="18">
+      <c r="F26" s="9"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="17">
         <v>0</v>
       </c>
       <c r="J26" s="3"/>
@@ -3518,24 +3462,22 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="66"/>
+      <c r="B27" s="47" t="s">
+        <v>90</v>
+      </c>
       <c r="C27" s="10" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E27" s="11"/>
-      <c r="F27" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="12">
-        <v>42048</v>
-      </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="18">
+      <c r="F27" s="9"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="17">
         <v>0</v>
       </c>
       <c r="J27" s="3"/>
@@ -3543,24 +3485,20 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="66"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="10" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E28" s="11"/>
-      <c r="F28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="12">
-        <v>42048</v>
-      </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="18">
+      <c r="F28" s="9"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="17">
         <v>0</v>
       </c>
       <c r="J28" s="3"/>
@@ -3568,28 +3506,24 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="66"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="12">
-        <v>42048</v>
-      </c>
-      <c r="H29" s="37">
+        <v>22</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="32">
         <v>2</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="17">
         <v>0</v>
       </c>
       <c r="J29" s="3"/>
@@ -3597,28 +3531,26 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="66"/>
+      <c r="B30" s="72" t="s">
+        <v>89</v>
+      </c>
       <c r="C30" s="10" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="12">
-        <v>42048</v>
-      </c>
-      <c r="H30" s="37">
+        <v>23</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="32">
         <v>3</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="17">
         <v>0</v>
       </c>
       <c r="J30" s="3"/>
@@ -3626,26 +3558,24 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="20" t="s">
+      <c r="B31" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="12">
-        <v>42050</v>
-      </c>
-      <c r="H31" s="38">
+      <c r="F31" s="19"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="33">
         <v>0.5</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="21">
         <v>0</v>
       </c>
       <c r="J31" s="3"/>
@@ -3653,43 +3583,49 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="B32" s="47" t="s">
+        <v>88</v>
+      </c>
       <c r="C32" s="6"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" s="65"/>
-      <c r="H32" s="39">
+      <c r="F32" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="57"/>
+      <c r="H32" s="34">
         <f>SUM(H4:H31)</f>
-        <v>39</v>
-      </c>
-      <c r="I32" s="47">
+        <v>41</v>
+      </c>
+      <c r="I32" s="36">
         <f>(SUM(I4:I31)/(COUNT(I4:I31)*3))*3</f>
-        <v>2.0370370370370372</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="58" t="s">
+      <c r="D33" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="34"/>
-      <c r="I33" s="23">
+      <c r="G33" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="31"/>
+      <c r="I33" s="22">
         <v>0</v>
       </c>
       <c r="J33" s="3"/>
@@ -3697,18 +3633,22 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="44" t="s">
-        <v>38</v>
+      <c r="D34" s="69"/>
+      <c r="E34" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="24">
+      <c r="I34" s="23">
         <v>1</v>
       </c>
       <c r="J34" s="3"/>
@@ -3716,18 +3656,22 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="44" t="s">
-        <v>37</v>
+      <c r="D35" s="69"/>
+      <c r="E35" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H35" s="5"/>
-      <c r="I35" s="24">
+      <c r="I35" s="23">
         <v>2</v>
       </c>
       <c r="J35" s="3"/>
@@ -3735,18 +3679,22 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="30">
+      <c r="D36" s="69"/>
+      <c r="E36" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="59">
         <v>1</v>
       </c>
-      <c r="H36" s="35"/>
-      <c r="I36" s="25">
+      <c r="H36" s="59"/>
+      <c r="I36" s="23">
         <v>3</v>
       </c>
       <c r="J36" s="3"/>
@@ -3754,64 +3702,56 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" s="34"/>
-      <c r="I37" s="40" t="s">
-        <v>33</v>
-      </c>
+      <c r="D37" s="70"/>
+      <c r="E37" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="63"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="44" t="s">
-        <v>30</v>
-      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="41" t="s">
-        <v>34</v>
-      </c>
+      <c r="I38" s="61"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="36"/>
-      <c r="I39" s="42" t="s">
-        <v>32</v>
-      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="61"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="6"/>
@@ -3826,7 +3766,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="6"/>
@@ -3841,7 +3781,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="6"/>
@@ -3856,7 +3796,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="6"/>
@@ -3871,7 +3811,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="6"/>
@@ -3886,7 +3826,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="6"/>
@@ -3901,7 +3841,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="6"/>
@@ -3916,13 +3856,13 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="6"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="F47" s="62"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="7"/>
@@ -3931,7 +3871,7 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="6"/>
@@ -3946,7 +3886,7 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="6"/>
@@ -3961,7 +3901,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="6"/>
@@ -3976,7 +3916,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="6"/>
@@ -3991,7 +3931,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="6"/>
@@ -4006,7 +3946,7 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="6"/>
@@ -4021,38 +3961,37 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I60" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="F33:F39"/>
-    <mergeCell ref="H4:H7"/>
     <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4117,7 +4056,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4129,7 +4068,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
